--- a/empdata.xlsx
+++ b/empdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32" count="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39" count="39">
   <x:si>
     <x:t>Employee Name</x:t>
   </x:si>
@@ -110,6 +110,27 @@
   </x:si>
   <x:si>
     <x:t>Yes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ekjbfwkefe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5987415bf27bce35f9e4ed79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21:48:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ewfkbwef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>efkjbwekfjwef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-08-2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-08-2017</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -643,6 +664,50 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:20">
+      <x:c r="A4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
